--- a/Task3/Nordic_wet.xlsx
+++ b/Task3/Nordic_wet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEECD3E-E4FE-B14E-9A9E-18DC55F7E0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3392AD04-9748-0B48-867F-ACCAA7DB609E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Node Parameters" sheetId="1" r:id="rId1"/>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
